--- a/MillenniumHistory/x64/StaticReleaseWindows/Resource/AncientBooks/Day.xlsx
+++ b/MillenniumHistory/x64/StaticReleaseWindows/Resource/AncientBooks/Day.xlsx
@@ -1073,8 +1073,8 @@
   <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>
